--- a/ProjectSchedule.xlsx
+++ b/ProjectSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30060241\OneDrive - TAFE\Desktop\Repo\Retake Intro to Game Design AT01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ED8355-8234-465F-A5E4-F78393467441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0953BC5C-60B6-4BCC-B4C6-04460542F151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="3240" windowWidth="18165" windowHeight="10605" xr2:uid="{01B4B5EA-DCC9-4FD0-AF2F-BCE95D12D0D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>week 1</t>
   </si>
@@ -66,6 +66,36 @@
   </si>
   <si>
     <t>week 10</t>
+  </si>
+  <si>
+    <t>set up git repo, and continue work o pre-production diary</t>
+  </si>
+  <si>
+    <t>receive client brief and start pre-production diary</t>
+  </si>
+  <si>
+    <t>research and plan for project and continue pre-production diary</t>
+  </si>
+  <si>
+    <t>finish pre-production diary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open unity and import unity package </t>
+  </si>
+  <si>
+    <t xml:space="preserve">finish prototype game </t>
+  </si>
+  <si>
+    <t>conduct peer reviews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conduct user trials </t>
+  </si>
+  <si>
+    <t>complete gold master</t>
+  </si>
+  <si>
+    <t>write scripts, and set up game environment along with any required sprites</t>
   </si>
 </sst>
 </file>
@@ -424,62 +454,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1038B004-758D-4040-855D-03EEF9849BDC}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
